--- a/NEW HR/MERCADO, ARLENNIE.xlsx
+++ b/NEW HR/MERCADO, ARLENNIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>BPLO</t>
+  </si>
+  <si>
+    <t>3/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1312,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1383,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1468,7 +1476,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.0180000000000007</v>
+        <v>6.2680000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1478,7 +1486,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.667000000000002</v>
+        <v>39.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3302,20 +3310,30 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="39">
+        <v>2</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>

--- a/NEW HR/MERCADO, ARLENNIE.xlsx
+++ b/NEW HR/MERCADO, ARLENNIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1311,9 +1311,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1476,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.2680000000000007</v>
+        <v>7.5180000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1486,7 +1486,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.917000000000002</v>
+        <v>39.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3336,24 +3336,38 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>45044</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -3362,10 +3376,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>1</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="49">
+        <v>45051</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>

--- a/NEW HR/MERCADO, ARLENNIE.xlsx
+++ b/NEW HR/MERCADO, ARLENNIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>3/13,14/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/11-14/2023</t>
   </si>
 </sst>
 </file>
@@ -979,7 +985,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1308,12 +1314,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1482,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.5180000000000007</v>
+        <v>11.268000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1486,7 +1492,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.167000000000002</v>
+        <v>36.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3368,13 +3374,15 @@
       <c r="B98" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39">
         <v>1</v>
@@ -3386,15 +3394,19 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45078</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -3402,24 +3414,36 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="A100" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H100" s="39">
+        <v>4</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
@@ -3428,14 +3452,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>1</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49">
+        <v>45132</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3444,13 +3474,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49">
+        <v>45138</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45139</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3914,20 +3950,52 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/MERCADO, ARLENNIE.xlsx
+++ b/NEW HR/MERCADO, ARLENNIE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>7/11-14/2023</t>
+  </si>
+  <si>
+    <t>9/7,12/2023</t>
   </si>
 </sst>
 </file>
@@ -1317,9 +1320,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1485,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.268000000000001</v>
+        <v>12.518000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1492,7 +1495,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.917000000000002</v>
+        <v>36.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3488,13 +3491,15 @@
         <v>45139</v>
       </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
@@ -3502,8 +3507,12 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
@@ -3512,13 +3521,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="39">
+        <v>2</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45200</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
